--- a/src/predicciones/holt_winters/producto_117.xlsx
+++ b/src/predicciones/holt_winters/producto_117.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2434 +404,1895 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.601485837421869</v>
+        <v>0.9998860752936984</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>1.597669165967839</v>
+        <v>1.000011623083993</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44935</v>
       </c>
       <c r="B4">
-        <v>1.884183068847448</v>
+        <v>2.000123891651804</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44936</v>
       </c>
       <c r="B5">
-        <v>1.674965763137243</v>
+        <v>1.000011745298329</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44939</v>
       </c>
       <c r="B6">
-        <v>1.626886607836116</v>
+        <v>1.999998320895094</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44940</v>
       </c>
       <c r="B7">
-        <v>2.222018376586223</v>
+        <v>0.9998860479158329</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
-        <v>1.933795583581519</v>
+        <v>0.9998843737906061</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44944</v>
       </c>
       <c r="B9">
-        <v>1.606615366351155</v>
+        <v>0.9998842338770866</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44952</v>
       </c>
       <c r="B10">
-        <v>1.602798694897126</v>
+        <v>1.000009781667381</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44953</v>
       </c>
       <c r="B11">
-        <v>1.889312597776734</v>
+        <v>2.000122050235192</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44954</v>
       </c>
       <c r="B12">
-        <v>1.68009529206653</v>
+        <v>1.000009903881717</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44955</v>
       </c>
       <c r="B13">
-        <v>1.632016136765402</v>
+        <v>1.999996479478483</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44964</v>
       </c>
       <c r="B14">
-        <v>2.22714790551551</v>
+        <v>0.9998842064992211</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44967</v>
       </c>
       <c r="B15">
-        <v>1.938925112510805</v>
+        <v>0.9998825323739945</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44969</v>
       </c>
       <c r="B16">
-        <v>1.611744895280441</v>
+        <v>0.9998823924604749</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44970</v>
       </c>
       <c r="B17">
-        <v>1.607928223826412</v>
+        <v>1.000007940250769</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44971</v>
       </c>
       <c r="B18">
-        <v>1.894442126706021</v>
+        <v>2.000120208818581</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44973</v>
       </c>
       <c r="B19">
-        <v>1.685224820995816</v>
+        <v>1.000008062465106</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44974</v>
       </c>
       <c r="B20">
-        <v>1.637145665694688</v>
+        <v>1.999994638061871</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44975</v>
       </c>
       <c r="B21">
-        <v>2.232277434444796</v>
+        <v>0.9998823650826092</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44976</v>
       </c>
       <c r="B22">
-        <v>1.944054641440091</v>
+        <v>0.9998806909573826</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44980</v>
       </c>
       <c r="B23">
-        <v>1.616874424209727</v>
+        <v>0.9998805510438631</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44985</v>
       </c>
       <c r="B24">
-        <v>1.613057752755698</v>
+        <v>1.000006098834158</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44988</v>
       </c>
       <c r="B25">
-        <v>1.899571655635307</v>
+        <v>2.000118367401969</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44991</v>
       </c>
       <c r="B26">
-        <v>1.690354349925102</v>
+        <v>1.000006221048494</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44996</v>
       </c>
       <c r="B27">
-        <v>1.642275194623975</v>
+        <v>1.999992796645259</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44998</v>
       </c>
       <c r="B28">
-        <v>2.237406963374082</v>
+        <v>0.9998805236659976</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44999</v>
       </c>
       <c r="B29">
-        <v>1.949184170369378</v>
+        <v>0.999878849540771</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45003</v>
       </c>
       <c r="B30">
-        <v>1.622003953139014</v>
+        <v>0.9998787096272514</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45004</v>
       </c>
       <c r="B31">
-        <v>1.618187281684984</v>
+        <v>1.000004257417546</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45005</v>
       </c>
       <c r="B32">
-        <v>1.904701184564593</v>
+        <v>2.000116525985357</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45007</v>
       </c>
       <c r="B33">
-        <v>1.695483878854388</v>
+        <v>1.000004379631882</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45009</v>
       </c>
       <c r="B34">
-        <v>1.647404723553261</v>
+        <v>1.999990955228647</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45012</v>
       </c>
       <c r="B35">
-        <v>2.242536492303368</v>
+        <v>0.9998786822493857</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45013</v>
       </c>
       <c r="B36">
-        <v>1.954313699298664</v>
+        <v>0.9998770081241591</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45015</v>
       </c>
       <c r="B37">
-        <v>1.6271334820683</v>
+        <v>0.9998768682106396</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45019</v>
       </c>
       <c r="B38">
-        <v>1.62331681061427</v>
+        <v>1.000002416000934</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45020</v>
       </c>
       <c r="B39">
-        <v>1.909830713493879</v>
+        <v>2.000114684568745</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45022</v>
       </c>
       <c r="B40">
-        <v>1.700613407783675</v>
+        <v>1.00000253821527</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45025</v>
       </c>
       <c r="B41">
-        <v>1.652534252482547</v>
+        <v>1.999989113812036</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45026</v>
       </c>
       <c r="B42">
-        <v>2.247666021232654</v>
+        <v>0.9998768408327741</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45028</v>
       </c>
       <c r="B43">
-        <v>1.95944322822795</v>
+        <v>0.9998751667075475</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45029</v>
       </c>
       <c r="B44">
-        <v>1.632263010997586</v>
+        <v>0.999875026794028</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45031</v>
       </c>
       <c r="B45">
-        <v>1.628446339543557</v>
+        <v>1.000000574584322</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45033</v>
       </c>
       <c r="B46">
-        <v>1.914960242423166</v>
+        <v>2.000112843152134</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45034</v>
       </c>
       <c r="B47">
-        <v>1.705742936712961</v>
+        <v>1.000000696798658</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45038</v>
       </c>
       <c r="B48">
-        <v>1.657663781411833</v>
+        <v>1.999987272395424</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45041</v>
       </c>
       <c r="B49">
-        <v>2.252795550161941</v>
+        <v>0.9998749994161622</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45043</v>
       </c>
       <c r="B50">
-        <v>1.964572757157236</v>
+        <v>0.9998733252909356</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45044</v>
       </c>
       <c r="B51">
-        <v>1.637392539926872</v>
+        <v>0.9998731853774161</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45046</v>
       </c>
       <c r="B52">
-        <v>1.633575868472843</v>
+        <v>0.9999987331677106</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45049</v>
       </c>
       <c r="B53">
-        <v>1.920089771352452</v>
+        <v>2.000111001735521</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45057</v>
       </c>
       <c r="B54">
-        <v>1.710872465642247</v>
+        <v>0.9999988553820467</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45058</v>
       </c>
       <c r="B55">
-        <v>1.662793310341119</v>
+        <v>1.999985430978812</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45059</v>
       </c>
       <c r="B56">
-        <v>2.257925079091227</v>
+        <v>0.9998731579995506</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45060</v>
       </c>
       <c r="B57">
-        <v>1.969702286086522</v>
+        <v>0.999871483874324</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45062</v>
       </c>
       <c r="B58">
-        <v>1.642522068856158</v>
+        <v>0.9998713439608042</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45063</v>
       </c>
       <c r="B59">
-        <v>1.638705397402129</v>
+        <v>0.9999968917510987</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45066</v>
       </c>
       <c r="B60">
-        <v>1.925219300281738</v>
+        <v>2.00010916031891</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45073</v>
       </c>
       <c r="B61">
-        <v>1.716001994571533</v>
+        <v>0.9999970139654348</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45076</v>
       </c>
       <c r="B62">
-        <v>1.667922839270406</v>
+        <v>1.9999835895622</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45078</v>
       </c>
       <c r="B63">
-        <v>2.263054608020513</v>
+        <v>0.9998713165829387</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45080</v>
       </c>
       <c r="B64">
-        <v>1.974831815015809</v>
+        <v>0.9998696424577121</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45083</v>
       </c>
       <c r="B65">
-        <v>1.647651597785445</v>
+        <v>0.9998695025441926</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45088</v>
       </c>
       <c r="B66">
-        <v>1.643834926331415</v>
+        <v>0.9999950503344871</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45092</v>
       </c>
       <c r="B67">
-        <v>1.930348829211024</v>
+        <v>2.000107318902298</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45096</v>
       </c>
       <c r="B68">
-        <v>1.721131523500819</v>
+        <v>0.9999951725488232</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45097</v>
       </c>
       <c r="B69">
-        <v>1.673052368199692</v>
+        <v>1.999981748145589</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45099</v>
       </c>
       <c r="B70">
-        <v>2.268184136949799</v>
+        <v>0.9998694751663271</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45100</v>
       </c>
       <c r="B71">
-        <v>1.979961343945095</v>
+        <v>0.9998678010411003</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45101</v>
       </c>
       <c r="B72">
-        <v>1.652781126714731</v>
+        <v>0.9998676611275807</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45104</v>
       </c>
       <c r="B73">
-        <v>1.648964455260701</v>
+        <v>0.9999932089178752</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45106</v>
       </c>
       <c r="B74">
-        <v>1.93547835814031</v>
+        <v>2.000105477485686</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45107</v>
       </c>
       <c r="B75">
-        <v>1.726261052430106</v>
+        <v>0.9999933311322113</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45108</v>
       </c>
       <c r="B76">
-        <v>1.678181897128978</v>
+        <v>1.999979906728977</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45109</v>
       </c>
       <c r="B77">
-        <v>2.273313665879086</v>
+        <v>0.9998676337497152</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45114</v>
       </c>
       <c r="B78">
-        <v>1.985090872874381</v>
+        <v>0.9998659596244887</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45119</v>
       </c>
       <c r="B79">
-        <v>1.657910655644017</v>
+        <v>0.9998658197109691</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45120</v>
       </c>
       <c r="B80">
-        <v>1.654093984189988</v>
+        <v>0.9999913675012636</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45124</v>
       </c>
       <c r="B81">
-        <v>1.940607887069596</v>
+        <v>2.000103636069075</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45128</v>
       </c>
       <c r="B82">
-        <v>1.731390581359392</v>
+        <v>0.9999914897155997</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45129</v>
       </c>
       <c r="B83">
-        <v>1.683311426058264</v>
+        <v>1.999978065312365</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45130</v>
       </c>
       <c r="B84">
-        <v>2.278443194808372</v>
+        <v>0.9998657923331034</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45135</v>
       </c>
       <c r="B85">
-        <v>1.990220401803667</v>
+        <v>0.9998641182078768</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45137</v>
       </c>
       <c r="B86">
-        <v>1.663040184573303</v>
+        <v>0.9998639782943572</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45138</v>
       </c>
       <c r="B87">
-        <v>1.659223513119274</v>
+        <v>0.9999895260846517</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45140</v>
       </c>
       <c r="B88">
-        <v>1.945737415998883</v>
+        <v>2.000101794652463</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45141</v>
       </c>
       <c r="B89">
-        <v>1.736520110288678</v>
+        <v>0.9999896482989878</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45143</v>
       </c>
       <c r="B90">
-        <v>1.68844095498755</v>
+        <v>1.999976223895753</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45144</v>
       </c>
       <c r="B91">
-        <v>2.283572723737658</v>
+        <v>0.9998639509164917</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45145</v>
       </c>
       <c r="B92">
-        <v>1.995349930732953</v>
+        <v>0.9998622767912652</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45146</v>
       </c>
       <c r="B93">
-        <v>1.668169713502589</v>
+        <v>0.9998621368777456</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45149</v>
       </c>
       <c r="B94">
-        <v>1.66435304204856</v>
+        <v>0.9999876846680401</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45159</v>
       </c>
       <c r="B95">
-        <v>1.950866944928169</v>
+        <v>2.000099953235851</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45161</v>
       </c>
       <c r="B96">
-        <v>1.741649639217964</v>
+        <v>0.999987806882376</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45163</v>
       </c>
       <c r="B97">
-        <v>1.693570483916837</v>
+        <v>1.999974382479141</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45164</v>
       </c>
       <c r="B98">
-        <v>2.288702252666944</v>
+        <v>0.9998621094998799</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45165</v>
       </c>
       <c r="B99">
-        <v>2.000479459662239</v>
+        <v>0.9998604353746533</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45167</v>
       </c>
       <c r="B100">
-        <v>1.673299242431876</v>
+        <v>0.9998602954611338</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45168</v>
       </c>
       <c r="B101">
-        <v>1.669482570977846</v>
+        <v>0.9999858432514283</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45169</v>
       </c>
       <c r="B102">
-        <v>1.955996473857455</v>
+        <v>2.00009811181924</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45170</v>
       </c>
       <c r="B103">
-        <v>1.74677916814725</v>
+        <v>0.9999859654657643</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45171</v>
       </c>
       <c r="B104">
-        <v>1.698700012846123</v>
+        <v>1.99997254106253</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45173</v>
       </c>
       <c r="B105">
-        <v>2.29383178159623</v>
+        <v>0.9998602680832682</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45177</v>
       </c>
       <c r="B106">
-        <v>2.005608988591526</v>
+        <v>0.9998585939580417</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45178</v>
       </c>
       <c r="B107">
-        <v>1.678428771361162</v>
+        <v>0.9998584540445221</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45182</v>
       </c>
       <c r="B108">
-        <v>1.674612099907133</v>
+        <v>0.9999840018348164</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45183</v>
       </c>
       <c r="B109">
-        <v>1.961126002786741</v>
+        <v>2.000096270402627</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45184</v>
       </c>
       <c r="B110">
-        <v>1.751908697076537</v>
+        <v>0.9999841240491525</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45185</v>
       </c>
       <c r="B111">
-        <v>1.703829541775409</v>
+        <v>1.999970699645918</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45186</v>
       </c>
       <c r="B112">
-        <v>2.298961310525517</v>
+        <v>0.9998584266666564</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45190</v>
       </c>
       <c r="B113">
-        <v>2.010738517520812</v>
+        <v>0.9998567525414298</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45192</v>
       </c>
       <c r="B114">
-        <v>1.683558300290448</v>
+        <v>0.9998566126279103</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45193</v>
       </c>
       <c r="B115">
-        <v>1.679741628836419</v>
+        <v>0.9999821604182048</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45196</v>
       </c>
       <c r="B116">
-        <v>1.966255531716028</v>
+        <v>2.000094428986016</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45198</v>
       </c>
       <c r="B117">
-        <v>1.757038226005823</v>
+        <v>0.9999822826325409</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45200</v>
       </c>
       <c r="B118">
-        <v>1.708959070704695</v>
+        <v>1.999968858229306</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45202</v>
       </c>
       <c r="B119">
-        <v>2.304090839454803</v>
+        <v>0.9998565852500447</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45205</v>
       </c>
       <c r="B120">
-        <v>2.015868046450098</v>
+        <v>0.9998549111248182</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45206</v>
       </c>
       <c r="B121">
-        <v>1.688687829219734</v>
+        <v>0.9998547712112984</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45210</v>
       </c>
       <c r="B122">
-        <v>1.684871157765705</v>
+        <v>0.9999803190015929</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45215</v>
       </c>
       <c r="B123">
-        <v>1.971385060645314</v>
+        <v>2.000092587569404</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45216</v>
       </c>
       <c r="B124">
-        <v>1.762167754935109</v>
+        <v>0.999980441215929</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45218</v>
       </c>
       <c r="B125">
-        <v>1.714088599633981</v>
+        <v>1.999967016812694</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45219</v>
       </c>
       <c r="B126">
-        <v>2.309220368384089</v>
+        <v>0.9998547438334329</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45220</v>
       </c>
       <c r="B127">
-        <v>2.020997575379384</v>
+        <v>0.9998530697082063</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45222</v>
       </c>
       <c r="B128">
-        <v>1.69381735814902</v>
+        <v>0.9998529297946868</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45224</v>
       </c>
       <c r="B129">
-        <v>1.690000686694991</v>
+        <v>0.9999784775849813</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45228</v>
       </c>
       <c r="B130">
-        <v>1.9765145895746</v>
+        <v>2.000090746152792</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45230</v>
       </c>
       <c r="B131">
-        <v>1.767297283864395</v>
+        <v>0.9999785997993174</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45233</v>
       </c>
       <c r="B132">
-        <v>1.719218128563268</v>
+        <v>1.999965175396083</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45235</v>
       </c>
       <c r="B133">
-        <v>2.314349897313375</v>
+        <v>0.999852902416821</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45237</v>
       </c>
       <c r="B134">
-        <v>2.02612710430867</v>
+        <v>0.9998512282915945</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45238</v>
       </c>
       <c r="B135">
-        <v>1.698946887078307</v>
+        <v>0.9998510883780749</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45241</v>
       </c>
       <c r="B136">
-        <v>1.695130215624277</v>
+        <v>0.9999766361683694</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45242</v>
       </c>
       <c r="B137">
-        <v>1.981644118503886</v>
+        <v>2.000088904736181</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45244</v>
       </c>
       <c r="B138">
-        <v>1.772426812793682</v>
+        <v>0.9999767583827055</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45247</v>
       </c>
       <c r="B139">
-        <v>1.724347657492554</v>
+        <v>1.999963333979471</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45248</v>
       </c>
       <c r="B140">
-        <v>2.319479426242661</v>
+        <v>0.9998510610002094</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45249</v>
       </c>
       <c r="B141">
-        <v>2.031256633237957</v>
+        <v>0.9998493868749828</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45251</v>
       </c>
       <c r="B142">
-        <v>1.704076416007593</v>
+        <v>0.9998492469614633</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45252</v>
       </c>
       <c r="B143">
-        <v>1.700259744553564</v>
+        <v>0.9999747947517578</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45254</v>
       </c>
       <c r="B144">
-        <v>1.986773647433172</v>
+        <v>2.000087063319569</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45258</v>
       </c>
       <c r="B145">
-        <v>1.777556341722967</v>
+        <v>0.9999749169660939</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45264</v>
       </c>
       <c r="B146">
-        <v>1.72947718642184</v>
+        <v>1.999961492562859</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45275</v>
       </c>
       <c r="B147">
-        <v>2.324608955171948</v>
+        <v>0.9998492195835975</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45278</v>
       </c>
       <c r="B148">
-        <v>2.036386162167243</v>
+        <v>0.999847545458371</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45280</v>
       </c>
       <c r="B149">
-        <v>1.709205944936879</v>
+        <v>0.9998474055448514</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45282</v>
       </c>
       <c r="B150">
-        <v>1.70538927348285</v>
+        <v>0.9999729533351459</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45284</v>
       </c>
       <c r="B151">
-        <v>1.991903176362458</v>
+        <v>2.000085221902957</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45286</v>
       </c>
       <c r="B152">
-        <v>1.782685870652254</v>
+        <v>0.999973075549482</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45288</v>
       </c>
       <c r="B153">
-        <v>1.734606715351126</v>
+        <v>1.999959651146247</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45291</v>
       </c>
       <c r="B154">
-        <v>2.329738484101234</v>
+        <v>0.9998473781669859</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45297</v>
       </c>
       <c r="B155">
-        <v>2.041515691096529</v>
+        <v>0.9998457040417593</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45299</v>
       </c>
       <c r="B156">
-        <v>1.714335473866165</v>
+        <v>0.9998455641282398</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45300</v>
       </c>
       <c r="B157">
-        <v>1.710518802412136</v>
+        <v>0.9999711119185343</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45302</v>
       </c>
       <c r="B158">
-        <v>1.997032705291745</v>
+        <v>2.000083380486346</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45303</v>
       </c>
       <c r="B159">
-        <v>1.78781539958154</v>
+        <v>0.9999712341328701</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45305</v>
       </c>
       <c r="B160">
-        <v>1.739736244280412</v>
+        <v>1.999957809729636</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45308</v>
       </c>
       <c r="B161">
-        <v>2.33486801303052</v>
+        <v>0.999845536750374</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45309</v>
       </c>
       <c r="B162">
-        <v>2.046645220025815</v>
+        <v>0.9998438626251475</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45311</v>
       </c>
       <c r="B163">
-        <v>1.719465002795451</v>
+        <v>0.9998437227116279</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45314</v>
       </c>
       <c r="B164">
-        <v>1.715648331341422</v>
+        <v>0.9999692705019224</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45315</v>
       </c>
       <c r="B165">
-        <v>2.002162234221031</v>
+        <v>2.000081539069734</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45317</v>
       </c>
       <c r="B166">
-        <v>1.792944928510826</v>
+        <v>0.9999693927162585</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45320</v>
       </c>
       <c r="B167">
-        <v>1.744865773209699</v>
+        <v>1.999955968313024</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45330</v>
       </c>
       <c r="B168">
-        <v>2.339997541959806</v>
+        <v>0.9998436953337624</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45332</v>
       </c>
       <c r="B169">
-        <v>2.051774748955101</v>
+        <v>0.9998420212085358</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45334</v>
       </c>
       <c r="B170">
-        <v>1.724594531724738</v>
+        <v>0.9998418812950163</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45337</v>
       </c>
       <c r="B171">
-        <v>1.720777860270708</v>
+        <v>0.9999674290853106</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45343</v>
       </c>
       <c r="B172">
-        <v>2.007291763150317</v>
+        <v>2.000079697653121</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45344</v>
       </c>
       <c r="B173">
-        <v>1.798074457440112</v>
+        <v>0.9999675512996467</v>
       </c>
       <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>1.749995302138985</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>2.345127070889093</v>
-      </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>2.056904277884388</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>1.729724060654024</v>
-      </c>
-      <c r="C177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>1.725907389199994</v>
-      </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>2.012421292079603</v>
-      </c>
-      <c r="C179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>1.803203986369398</v>
-      </c>
-      <c r="C180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>1.755124831068271</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>2.350256599818378</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>2.062033806813674</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>1.73485358958331</v>
-      </c>
-      <c r="C184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>1.731036918129281</v>
-      </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>2.017550821008889</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>1.808333515298685</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>1.760254359997557</v>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>2.355386128747665</v>
-      </c>
-      <c r="C189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>2.06716333574296</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>1.739983118512596</v>
-      </c>
-      <c r="C191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>1.736166447058567</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>2.022680349938176</v>
-      </c>
-      <c r="C193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>1.813463044227971</v>
-      </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>1.765383888926843</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>2.360515657676951</v>
-      </c>
-      <c r="C196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>2.072292864672246</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>1.745112647441882</v>
-      </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>1.741295975987853</v>
-      </c>
-      <c r="C199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>2.027809878867462</v>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>1.818592573157257</v>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>1.770513417856129</v>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>2.365645186606237</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>2.077422393601533</v>
-      </c>
-      <c r="C204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>1.750242176371169</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>1.746425504917139</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>2.032939407796748</v>
-      </c>
-      <c r="C207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>1.823722102086543</v>
-      </c>
-      <c r="C208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>1.775642946785416</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>2.370774715535523</v>
-      </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>2.082551922530818</v>
-      </c>
-      <c r="C211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>1.755371705300455</v>
-      </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>1.751555033846425</v>
-      </c>
-      <c r="C213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>2.038068936726035</v>
-      </c>
-      <c r="C214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>1.82885163101583</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>1.780772475714702</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>2.37590424446481</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>2.087681451460105</v>
-      </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>1.760501234229741</v>
-      </c>
-      <c r="C219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>1.756684562775712</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>2.043198465655321</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>1.833981159945116</v>
-      </c>
-      <c r="C222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
